--- a/caracterizacion/pruebPuenteH.xlsx
+++ b/caracterizacion/pruebPuenteH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d97dfd61da619a5/UNAL FORE/SEMESTRE VII/CONTROL/LABORATORIO/PROYECTO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d97dfd61da619a5/UNAL FORE/SEMESTRE 9/TECNICAS DE CONTROL/PROYECTO/eolic-balancing-cs/caracterizacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{937CF009-8AFF-467F-8159-A41D0CD85E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EAF7694-B6E3-447D-8A32-BD5E6E827D78}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{937CF009-8AFF-467F-8159-A41D0CD85E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A856BDB-BC20-458C-81B9-A6ED5384F198}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4FA1A74-83CF-4DE4-8B53-90D7E4B8CF26}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{E4FA1A74-83CF-4DE4-8B53-90D7E4B8CF26}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,11 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +132,9 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{515F0A3B-BA69-4164-93BF-00860963CFEC}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,7 +186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -272,7 +274,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -322,7 +324,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -544,7 +546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331234752"/>
@@ -606,7 +608,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331238496"/>
@@ -647,7 +649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1256,7 +1258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1558,14 +1560,14 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f>C6/C26</f>
         <v>3.9215686274509795E-3</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0.05</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <f>B7+0.05</f>
         <v>0.1</v>
@@ -1663,7 +1665,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="shared" ref="B9:B26" si="1">B8+0.05</f>
         <v>0.15000000000000002</v>
@@ -1689,7 +1691,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>0.2</v>
@@ -1715,7 +1717,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -1741,7 +1743,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -1767,7 +1769,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>0.35</v>
@@ -1793,7 +1795,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>0.39999999999999997</v>
@@ -1819,7 +1821,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
@@ -1845,7 +1847,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>0.49999999999999994</v>
@@ -1871,7 +1873,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>0.54999999999999993</v>
@@ -1897,7 +1899,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>0.6</v>
@@ -1923,7 +1925,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>0.65</v>
@@ -1949,7 +1951,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
@@ -1975,7 +1977,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="1"/>
         <v>0.75000000000000011</v>
@@ -2001,7 +2003,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="1"/>
         <v>0.80000000000000016</v>
@@ -2027,7 +2029,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="shared" si="1"/>
         <v>0.8500000000000002</v>
@@ -2053,7 +2055,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <f t="shared" si="1"/>
         <v>0.90000000000000024</v>
@@ -2086,7 +2088,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="shared" si="1"/>
         <v>0.95000000000000029</v>
@@ -2112,7 +2114,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
@@ -2138,15 +2140,15 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="J29" s="1"/>
     </row>
